--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Angpt2-Tek.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Angpt2-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.80525333333333</v>
+        <v>13.40979833333333</v>
       </c>
       <c r="H2">
-        <v>38.41576000000001</v>
+        <v>40.229395</v>
       </c>
       <c r="I2">
-        <v>0.5783465436321655</v>
+        <v>0.6868409202994065</v>
       </c>
       <c r="J2">
-        <v>0.5783465436321655</v>
+        <v>0.6868409202994064</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>64.74848166666666</v>
+        <v>71.47459166666665</v>
       </c>
       <c r="N2">
-        <v>194.245445</v>
+        <v>214.423775</v>
       </c>
       <c r="O2">
-        <v>0.9402357523751964</v>
+        <v>0.9365945886638486</v>
       </c>
       <c r="P2">
-        <v>0.9402357523751964</v>
+        <v>0.9365945886638485</v>
       </c>
       <c r="Q2">
-        <v>829.1207106903556</v>
+        <v>958.459860207347</v>
       </c>
       <c r="R2">
-        <v>7462.086396213201</v>
+        <v>8626.138741866123</v>
       </c>
       <c r="S2">
-        <v>0.5437820975855835</v>
+        <v>0.6432914892253219</v>
       </c>
       <c r="T2">
-        <v>0.5437820975855835</v>
+        <v>0.6432914892253216</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.80525333333333</v>
+        <v>13.40979833333333</v>
       </c>
       <c r="H3">
-        <v>38.41576000000001</v>
+        <v>40.229395</v>
       </c>
       <c r="I3">
-        <v>0.5783465436321655</v>
+        <v>0.6868409202994065</v>
       </c>
       <c r="J3">
-        <v>0.5783465436321655</v>
+        <v>0.6868409202994064</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.258629666666667</v>
+        <v>3.258629666666666</v>
       </c>
       <c r="N3">
-        <v>9.775889000000001</v>
+        <v>9.775888999999999</v>
       </c>
       <c r="O3">
-        <v>0.04731972144341098</v>
+        <v>0.04270069742396077</v>
       </c>
       <c r="P3">
-        <v>0.04731972144341098</v>
+        <v>0.04270069742396076</v>
       </c>
       <c r="Q3">
-        <v>41.72757840118224</v>
+        <v>43.69756667301721</v>
       </c>
       <c r="R3">
-        <v>375.5482056106401</v>
+        <v>393.2781000571549</v>
       </c>
       <c r="S3">
-        <v>0.02736719734243361</v>
+        <v>0.02932858631609971</v>
       </c>
       <c r="T3">
-        <v>0.02736719734243361</v>
+        <v>0.0293285863160997</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.80525333333333</v>
+        <v>13.40979833333333</v>
       </c>
       <c r="H4">
-        <v>38.41576000000001</v>
+        <v>40.229395</v>
       </c>
       <c r="I4">
-        <v>0.5783465436321655</v>
+        <v>0.6868409202994065</v>
       </c>
       <c r="J4">
-        <v>0.5783465436321655</v>
+        <v>0.6868409202994064</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.023043</v>
+        <v>0.1062743333333333</v>
       </c>
       <c r="N4">
-        <v>0.069129</v>
+        <v>0.318823</v>
       </c>
       <c r="O4">
-        <v>0.0003346156061777663</v>
+        <v>0.001392606284175224</v>
       </c>
       <c r="P4">
-        <v>0.0003346156061777663</v>
+        <v>0.001392606284175224</v>
       </c>
       <c r="Q4">
-        <v>0.29507145256</v>
+        <v>1.425117378009445</v>
       </c>
       <c r="R4">
-        <v>2.65564307304</v>
+        <v>12.826056402085</v>
       </c>
       <c r="S4">
-        <v>0.000193523779278293</v>
+        <v>0.0009564989818376476</v>
       </c>
       <c r="T4">
-        <v>0.000193523779278293</v>
+        <v>0.0009564989818376473</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,61 +726,61 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.80525333333333</v>
+        <v>13.40979833333333</v>
       </c>
       <c r="H5">
-        <v>38.41576000000001</v>
+        <v>40.229395</v>
       </c>
       <c r="I5">
-        <v>0.5783465436321655</v>
+        <v>0.6868409202994065</v>
       </c>
       <c r="J5">
-        <v>0.5783465436321655</v>
+        <v>0.6868409202994064</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7928556666666667</v>
+        <v>1.47377</v>
       </c>
       <c r="N5">
-        <v>2.378567</v>
+        <v>4.42131</v>
       </c>
       <c r="O5">
-        <v>0.01151333938780296</v>
+        <v>0.01931210762801542</v>
       </c>
       <c r="P5">
-        <v>0.01151333938780296</v>
+        <v>0.01931210762801541</v>
       </c>
       <c r="Q5">
-        <v>10.15271766843556</v>
+        <v>19.76295848971667</v>
       </c>
       <c r="R5">
-        <v>91.37445901592002</v>
+        <v>177.86662640745</v>
       </c>
       <c r="S5">
-        <v>0.006658700040599917</v>
+        <v>0.0132643457761473</v>
       </c>
       <c r="T5">
-        <v>0.006658700040599917</v>
+        <v>0.01326434577614729</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.80525333333333</v>
+        <v>1.142193666666667</v>
       </c>
       <c r="H6">
-        <v>38.41576000000001</v>
+        <v>3.426581</v>
       </c>
       <c r="I6">
-        <v>0.5783465436321655</v>
+        <v>0.05850239725256769</v>
       </c>
       <c r="J6">
-        <v>0.5783465436321655</v>
+        <v>0.05850239725256768</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.04108233333333334</v>
+        <v>71.47459166666665</v>
       </c>
       <c r="N6">
-        <v>0.123247</v>
+        <v>214.423775</v>
       </c>
       <c r="O6">
-        <v>0.0005965711874118121</v>
+        <v>0.9365945886638486</v>
       </c>
       <c r="P6">
-        <v>0.0005965711874118121</v>
+        <v>0.9365945886638485</v>
       </c>
       <c r="Q6">
-        <v>0.5260696858577779</v>
+        <v>81.63782592925276</v>
       </c>
       <c r="R6">
-        <v>4.734627172720001</v>
+        <v>734.7404333632749</v>
       </c>
       <c r="S6">
-        <v>0.0003450248842701584</v>
+        <v>0.0547930286906177</v>
       </c>
       <c r="T6">
-        <v>0.0003450248842701584</v>
+        <v>0.05479302869061769</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>3.426581</v>
       </c>
       <c r="I7">
-        <v>0.05158693405585751</v>
+        <v>0.05850239725256769</v>
       </c>
       <c r="J7">
-        <v>0.05158693405585751</v>
+        <v>0.05850239725256768</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>64.74848166666666</v>
+        <v>3.258629666666666</v>
       </c>
       <c r="N7">
-        <v>194.245445</v>
+        <v>9.775888999999999</v>
       </c>
       <c r="O7">
-        <v>0.9402357523751964</v>
+        <v>0.04270069742396077</v>
       </c>
       <c r="P7">
-        <v>0.9402357523751964</v>
+        <v>0.04270069742396076</v>
       </c>
       <c r="Q7">
-        <v>73.95530568594943</v>
+        <v>3.721986167278777</v>
       </c>
       <c r="R7">
-        <v>665.5977511735449</v>
+        <v>33.49787550550899</v>
       </c>
       <c r="S7">
-        <v>0.04850387975473883</v>
+        <v>0.002498093163658247</v>
       </c>
       <c r="T7">
-        <v>0.04850387975473883</v>
+        <v>0.002498093163658246</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>3.426581</v>
       </c>
       <c r="I8">
-        <v>0.05158693405585751</v>
+        <v>0.05850239725256769</v>
       </c>
       <c r="J8">
-        <v>0.05158693405585751</v>
+        <v>0.05850239725256768</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>3.258629666666667</v>
+        <v>0.1062743333333333</v>
       </c>
       <c r="N8">
-        <v>9.775889000000001</v>
+        <v>0.318823</v>
       </c>
       <c r="O8">
-        <v>0.04731972144341098</v>
+        <v>0.001392606284175224</v>
       </c>
       <c r="P8">
-        <v>0.04731972144341098</v>
+        <v>0.001392606284175224</v>
       </c>
       <c r="Q8">
-        <v>3.721986167278778</v>
+        <v>0.1213858704625556</v>
       </c>
       <c r="R8">
-        <v>33.497875505509</v>
+        <v>1.092472834163</v>
       </c>
       <c r="S8">
-        <v>0.002441079349642789</v>
+        <v>8.147080605324113E-05</v>
       </c>
       <c r="T8">
-        <v>0.002441079349642789</v>
+        <v>8.14708060532411E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +980,45 @@
         <v>3.426581</v>
       </c>
       <c r="I9">
-        <v>0.05158693405585751</v>
+        <v>0.05850239725256769</v>
       </c>
       <c r="J9">
-        <v>0.05158693405585751</v>
+        <v>0.05850239725256768</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.023043</v>
+        <v>1.47377</v>
       </c>
       <c r="N9">
-        <v>0.069129</v>
+        <v>4.42131</v>
       </c>
       <c r="O9">
-        <v>0.0003346156061777663</v>
+        <v>0.01931210762801542</v>
       </c>
       <c r="P9">
-        <v>0.0003346156061777663</v>
+        <v>0.01931210762801541</v>
       </c>
       <c r="Q9">
-        <v>0.026319568661</v>
+        <v>1.683330760123333</v>
       </c>
       <c r="R9">
-        <v>0.236876117949</v>
+        <v>15.14997684111</v>
       </c>
       <c r="S9">
-        <v>1.726179320995322E-05</v>
+        <v>0.001129804592238501</v>
       </c>
       <c r="T9">
-        <v>1.726179320995322E-05</v>
+        <v>0.0011298045922385</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,61 +1036,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.142193666666667</v>
+        <v>2.395418333333333</v>
       </c>
       <c r="H10">
-        <v>3.426581</v>
+        <v>7.186254999999999</v>
       </c>
       <c r="I10">
-        <v>0.05158693405585751</v>
+        <v>0.1226917282177923</v>
       </c>
       <c r="J10">
-        <v>0.05158693405585751</v>
+        <v>0.1226917282177922</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7928556666666667</v>
+        <v>71.47459166666665</v>
       </c>
       <c r="N10">
-        <v>2.378567</v>
+        <v>214.423775</v>
       </c>
       <c r="O10">
-        <v>0.01151333938780296</v>
+        <v>0.9365945886638486</v>
       </c>
       <c r="P10">
-        <v>0.01151333938780296</v>
+        <v>0.9365945886638485</v>
       </c>
       <c r="Q10">
-        <v>0.9055947210474444</v>
+        <v>171.2115472458472</v>
       </c>
       <c r="R10">
-        <v>8.150352489427</v>
+        <v>1540.903925212625</v>
       </c>
       <c r="S10">
-        <v>0.0005939378797612984</v>
+        <v>0.1149124087225999</v>
       </c>
       <c r="T10">
-        <v>0.0005939378797612984</v>
+        <v>0.1149124087225998</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.142193666666667</v>
+        <v>2.395418333333333</v>
       </c>
       <c r="H11">
-        <v>3.426581</v>
+        <v>7.186254999999999</v>
       </c>
       <c r="I11">
-        <v>0.05158693405585751</v>
+        <v>0.1226917282177923</v>
       </c>
       <c r="J11">
-        <v>0.05158693405585751</v>
+        <v>0.1226917282177922</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.04108233333333334</v>
+        <v>3.258629666666666</v>
       </c>
       <c r="N11">
-        <v>0.123247</v>
+        <v>9.775888999999999</v>
       </c>
       <c r="O11">
-        <v>0.0005965711874118121</v>
+        <v>0.04270069742396077</v>
       </c>
       <c r="P11">
-        <v>0.0005965711874118121</v>
+        <v>0.04270069742396076</v>
       </c>
       <c r="Q11">
-        <v>0.04692398094522222</v>
+        <v>7.805781245077221</v>
       </c>
       <c r="R11">
-        <v>0.422315828507</v>
+        <v>70.25203120569499</v>
       </c>
       <c r="S11">
-        <v>3.077527850463777E-05</v>
+        <v>0.005239022363050776</v>
       </c>
       <c r="T11">
-        <v>3.077527850463777E-05</v>
+        <v>0.005239022363050775</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.048356666666667</v>
+        <v>2.395418333333333</v>
       </c>
       <c r="H12">
-        <v>12.14507</v>
+        <v>7.186254999999999</v>
       </c>
       <c r="I12">
-        <v>0.1828431679256301</v>
+        <v>0.1226917282177923</v>
       </c>
       <c r="J12">
-        <v>0.1828431679256301</v>
+        <v>0.1226917282177922</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>64.74848166666666</v>
+        <v>0.1062743333333333</v>
       </c>
       <c r="N12">
-        <v>194.245445</v>
+        <v>0.318823</v>
       </c>
       <c r="O12">
-        <v>0.9402357523751964</v>
+        <v>0.001392606284175224</v>
       </c>
       <c r="P12">
-        <v>0.9402357523751964</v>
+        <v>0.001392606284175224</v>
       </c>
       <c r="Q12">
-        <v>262.1249474117944</v>
+        <v>0.2545714864294444</v>
       </c>
       <c r="R12">
-        <v>2359.12452670615</v>
+        <v>2.291143377865</v>
       </c>
       <c r="S12">
-        <v>0.1719156835612192</v>
+        <v>0.0001708612717324162</v>
       </c>
       <c r="T12">
-        <v>0.1719156835612192</v>
+        <v>0.0001708612717324161</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.048356666666667</v>
+        <v>2.395418333333333</v>
       </c>
       <c r="H13">
-        <v>12.14507</v>
+        <v>7.186254999999999</v>
       </c>
       <c r="I13">
-        <v>0.1828431679256301</v>
+        <v>0.1226917282177923</v>
       </c>
       <c r="J13">
-        <v>0.1828431679256301</v>
+        <v>0.1226917282177922</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.258629666666667</v>
+        <v>1.47377</v>
       </c>
       <c r="N13">
-        <v>9.775889000000001</v>
+        <v>4.42131</v>
       </c>
       <c r="O13">
-        <v>0.04731972144341098</v>
+        <v>0.01931210762801542</v>
       </c>
       <c r="P13">
-        <v>0.04731972144341098</v>
+        <v>0.01931210762801541</v>
       </c>
       <c r="Q13">
-        <v>13.19209513524778</v>
+        <v>3.530295677116666</v>
       </c>
       <c r="R13">
-        <v>118.72885621723</v>
+        <v>31.77266109405</v>
       </c>
       <c r="S13">
-        <v>0.008652087774071634</v>
+        <v>0.00236943586040922</v>
       </c>
       <c r="T13">
-        <v>0.008652087774071634</v>
+        <v>0.00236943586040922</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,51 +1284,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.048356666666667</v>
+        <v>1.306961666666667</v>
       </c>
       <c r="H14">
-        <v>12.14507</v>
+        <v>3.920885</v>
       </c>
       <c r="I14">
-        <v>0.1828431679256301</v>
+        <v>0.06694170423860808</v>
       </c>
       <c r="J14">
-        <v>0.1828431679256301</v>
+        <v>0.06694170423860807</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.023043</v>
+        <v>71.47459166666665</v>
       </c>
       <c r="N14">
-        <v>0.069129</v>
+        <v>214.423775</v>
       </c>
       <c r="O14">
-        <v>0.0003346156061777663</v>
+        <v>0.9365945886638486</v>
       </c>
       <c r="P14">
-        <v>0.0003346156061777663</v>
+        <v>0.9365945886638485</v>
       </c>
       <c r="Q14">
-        <v>0.09328628267</v>
+        <v>93.4145514489861</v>
       </c>
       <c r="R14">
-        <v>0.83957654403</v>
+        <v>840.7309630408749</v>
       </c>
       <c r="S14">
-        <v>6.118217747089783E-05</v>
+        <v>0.06269723794581615</v>
       </c>
       <c r="T14">
-        <v>6.118217747089783E-05</v>
+        <v>0.06269723794581612</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,7 +1337,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,61 +1346,61 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.048356666666667</v>
+        <v>1.306961666666667</v>
       </c>
       <c r="H15">
-        <v>12.14507</v>
+        <v>3.920885</v>
       </c>
       <c r="I15">
-        <v>0.1828431679256301</v>
+        <v>0.06694170423860808</v>
       </c>
       <c r="J15">
-        <v>0.1828431679256301</v>
+        <v>0.06694170423860807</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.7928556666666667</v>
+        <v>3.258629666666666</v>
       </c>
       <c r="N15">
-        <v>2.378567</v>
+        <v>9.775888999999999</v>
       </c>
       <c r="O15">
-        <v>0.01151333938780296</v>
+        <v>0.04270069742396077</v>
       </c>
       <c r="P15">
-        <v>0.01151333938780296</v>
+        <v>0.04270069742396076</v>
       </c>
       <c r="Q15">
-        <v>3.209762523854445</v>
+        <v>4.258904060196111</v>
       </c>
       <c r="R15">
-        <v>28.88786271469001</v>
+        <v>38.330136541765</v>
       </c>
       <c r="S15">
-        <v>0.002105135447068829</v>
+        <v>0.002858457457737076</v>
       </c>
       <c r="T15">
-        <v>0.002105135447068829</v>
+        <v>0.002858457457737074</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.048356666666667</v>
+        <v>1.306961666666667</v>
       </c>
       <c r="H16">
-        <v>12.14507</v>
+        <v>3.920885</v>
       </c>
       <c r="I16">
-        <v>0.1828431679256301</v>
+        <v>0.06694170423860808</v>
       </c>
       <c r="J16">
-        <v>0.1828431679256301</v>
+        <v>0.06694170423860807</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.04108233333333334</v>
+        <v>0.1062743333333333</v>
       </c>
       <c r="N16">
-        <v>0.123247</v>
+        <v>0.318823</v>
       </c>
       <c r="O16">
-        <v>0.0005965711874118121</v>
+        <v>0.001392606284175224</v>
       </c>
       <c r="P16">
-        <v>0.0005965711874118121</v>
+        <v>0.001392606284175224</v>
       </c>
       <c r="Q16">
-        <v>0.1663159380322222</v>
+        <v>0.1388964798172223</v>
       </c>
       <c r="R16">
-        <v>1.49684344229</v>
+        <v>1.250068318355</v>
       </c>
       <c r="S16">
-        <v>0.0001090789657995305</v>
+        <v>9.322343799608483E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001090789657995305</v>
+        <v>9.322343799608481E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.909376</v>
+        <v>1.306961666666667</v>
       </c>
       <c r="H17">
-        <v>5.728128</v>
+        <v>3.920885</v>
       </c>
       <c r="I17">
-        <v>0.0862365609917031</v>
+        <v>0.06694170423860808</v>
       </c>
       <c r="J17">
-        <v>0.0862365609917031</v>
+        <v>0.06694170423860807</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,33 +1488,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>64.74848166666666</v>
+        <v>1.47377</v>
       </c>
       <c r="N17">
-        <v>194.245445</v>
+        <v>4.42131</v>
       </c>
       <c r="O17">
-        <v>0.9402357523751964</v>
+        <v>0.01931210762801542</v>
       </c>
       <c r="P17">
-        <v>0.9402357523751964</v>
+        <v>0.01931210762801541</v>
       </c>
       <c r="Q17">
-        <v>123.6291969307733</v>
+        <v>1.926160895483334</v>
       </c>
       <c r="R17">
-        <v>1112.66277237696</v>
+        <v>17.33544805935</v>
       </c>
       <c r="S17">
-        <v>0.08108269780628348</v>
+        <v>0.001292785397058775</v>
       </c>
       <c r="T17">
-        <v>0.08108269780628348</v>
+        <v>0.001292785397058775</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,7 +1523,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.909376</v>
+        <v>1.269506</v>
       </c>
       <c r="H18">
-        <v>5.728128</v>
+        <v>3.808518</v>
       </c>
       <c r="I18">
-        <v>0.0862365609917031</v>
+        <v>0.06502324999162565</v>
       </c>
       <c r="J18">
-        <v>0.0862365609917031</v>
+        <v>0.06502324999162565</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.258629666666667</v>
+        <v>71.47459166666665</v>
       </c>
       <c r="N18">
-        <v>9.775889000000001</v>
+        <v>214.423775</v>
       </c>
       <c r="O18">
-        <v>0.04731972144341098</v>
+        <v>0.9365945886638486</v>
       </c>
       <c r="P18">
-        <v>0.04731972144341098</v>
+        <v>0.9365945886638485</v>
       </c>
       <c r="Q18">
-        <v>6.221949278421334</v>
+        <v>90.73742296838331</v>
       </c>
       <c r="R18">
-        <v>55.997543505792</v>
+        <v>816.6368067154499</v>
       </c>
       <c r="S18">
-        <v>0.004080690044365112</v>
+        <v>0.06090042407949322</v>
       </c>
       <c r="T18">
-        <v>0.004080690044365112</v>
+        <v>0.06090042407949321</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,7 +1585,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1594,51 +1594,51 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.909376</v>
+        <v>1.269506</v>
       </c>
       <c r="H19">
-        <v>5.728128</v>
+        <v>3.808518</v>
       </c>
       <c r="I19">
-        <v>0.0862365609917031</v>
+        <v>0.06502324999162565</v>
       </c>
       <c r="J19">
-        <v>0.0862365609917031</v>
+        <v>0.06502324999162565</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.023043</v>
+        <v>3.258629666666666</v>
       </c>
       <c r="N19">
-        <v>0.069129</v>
+        <v>9.775888999999999</v>
       </c>
       <c r="O19">
-        <v>0.0003346156061777663</v>
+        <v>0.04270069742396077</v>
       </c>
       <c r="P19">
-        <v>0.0003346156061777663</v>
+        <v>0.04270069742396076</v>
       </c>
       <c r="Q19">
-        <v>0.043997751168</v>
+        <v>4.136849913611333</v>
       </c>
       <c r="R19">
-        <v>0.395979760512</v>
+        <v>37.23164922250199</v>
       </c>
       <c r="S19">
-        <v>2.885609913092464E-05</v>
+        <v>0.002776538123414966</v>
       </c>
       <c r="T19">
-        <v>2.885609913092464E-05</v>
+        <v>0.002776538123414966</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,7 +1647,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1656,61 +1656,61 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.909376</v>
+        <v>1.269506</v>
       </c>
       <c r="H20">
-        <v>5.728128</v>
+        <v>3.808518</v>
       </c>
       <c r="I20">
-        <v>0.0862365609917031</v>
+        <v>0.06502324999162565</v>
       </c>
       <c r="J20">
-        <v>0.0862365609917031</v>
+        <v>0.06502324999162565</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.7928556666666667</v>
+        <v>0.1062743333333333</v>
       </c>
       <c r="N20">
-        <v>2.378567</v>
+        <v>0.318823</v>
       </c>
       <c r="O20">
-        <v>0.01151333938780296</v>
+        <v>0.001392606284175224</v>
       </c>
       <c r="P20">
-        <v>0.01151333938780296</v>
+        <v>0.001392606284175224</v>
       </c>
       <c r="Q20">
-        <v>1.513859581397333</v>
+        <v>0.1349159038126667</v>
       </c>
       <c r="R20">
-        <v>13.624736232576</v>
+        <v>1.214243134314</v>
       </c>
       <c r="S20">
-        <v>0.0009928707943344479</v>
+        <v>9.055178655583446E-05</v>
       </c>
       <c r="T20">
-        <v>0.0009928707943344479</v>
+        <v>9.055178655583444E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1718,356 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.909376</v>
+        <v>1.269506</v>
       </c>
       <c r="H21">
-        <v>5.728128</v>
+        <v>3.808518</v>
       </c>
       <c r="I21">
-        <v>0.0862365609917031</v>
+        <v>0.06502324999162565</v>
       </c>
       <c r="J21">
-        <v>0.0862365609917031</v>
+        <v>0.06502324999162565</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.04108233333333334</v>
+        <v>1.47377</v>
       </c>
       <c r="N21">
-        <v>0.123247</v>
+        <v>4.42131</v>
       </c>
       <c r="O21">
-        <v>0.0005965711874118121</v>
+        <v>0.01931210762801542</v>
       </c>
       <c r="P21">
-        <v>0.0005965711874118121</v>
+        <v>0.01931210762801541</v>
       </c>
       <c r="Q21">
-        <v>0.07844162129066667</v>
+        <v>1.87095985762</v>
       </c>
       <c r="R21">
-        <v>0.7059745916160001</v>
+        <v>16.83863871858</v>
       </c>
       <c r="S21">
-        <v>5.144624758913148E-05</v>
+        <v>0.001255736002161627</v>
       </c>
       <c r="T21">
-        <v>5.144624758913148E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>2.235963</v>
-      </c>
-      <c r="H22">
-        <v>6.707889</v>
-      </c>
-      <c r="I22">
-        <v>0.1009867933946438</v>
-      </c>
-      <c r="J22">
-        <v>0.1009867933946438</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>64.74848166666666</v>
-      </c>
-      <c r="N22">
-        <v>194.245445</v>
-      </c>
-      <c r="O22">
-        <v>0.9402357523751964</v>
-      </c>
-      <c r="P22">
-        <v>0.9402357523751964</v>
-      </c>
-      <c r="Q22">
-        <v>144.775209312845</v>
-      </c>
-      <c r="R22">
-        <v>1302.976883815605</v>
-      </c>
-      <c r="S22">
-        <v>0.09495139366737144</v>
-      </c>
-      <c r="T22">
-        <v>0.09495139366737144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>2.235963</v>
-      </c>
-      <c r="H23">
-        <v>6.707889</v>
-      </c>
-      <c r="I23">
-        <v>0.1009867933946438</v>
-      </c>
-      <c r="J23">
-        <v>0.1009867933946438</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>3.258629666666667</v>
-      </c>
-      <c r="N23">
-        <v>9.775889000000001</v>
-      </c>
-      <c r="O23">
-        <v>0.04731972144341098</v>
-      </c>
-      <c r="P23">
-        <v>0.04731972144341098</v>
-      </c>
-      <c r="Q23">
-        <v>7.286175365369001</v>
-      </c>
-      <c r="R23">
-        <v>65.57557828832101</v>
-      </c>
-      <c r="S23">
-        <v>0.004778666932897842</v>
-      </c>
-      <c r="T23">
-        <v>0.004778666932897842</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>2.235963</v>
-      </c>
-      <c r="H24">
-        <v>6.707889</v>
-      </c>
-      <c r="I24">
-        <v>0.1009867933946438</v>
-      </c>
-      <c r="J24">
-        <v>0.1009867933946438</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.023043</v>
-      </c>
-      <c r="N24">
-        <v>0.069129</v>
-      </c>
-      <c r="O24">
-        <v>0.0003346156061777663</v>
-      </c>
-      <c r="P24">
-        <v>0.0003346156061777663</v>
-      </c>
-      <c r="Q24">
-        <v>0.05152329540899999</v>
-      </c>
-      <c r="R24">
-        <v>0.4637096586809999</v>
-      </c>
-      <c r="S24">
-        <v>3.379175708769758E-05</v>
-      </c>
-      <c r="T24">
-        <v>3.379175708769758E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>2.235963</v>
-      </c>
-      <c r="H25">
-        <v>6.707889</v>
-      </c>
-      <c r="I25">
-        <v>0.1009867933946438</v>
-      </c>
-      <c r="J25">
-        <v>0.1009867933946438</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M25">
-        <v>0.7928556666666667</v>
-      </c>
-      <c r="N25">
-        <v>2.378567</v>
-      </c>
-      <c r="O25">
-        <v>0.01151333938780296</v>
-      </c>
-      <c r="P25">
-        <v>0.01151333938780296</v>
-      </c>
-      <c r="Q25">
-        <v>1.772795935007</v>
-      </c>
-      <c r="R25">
-        <v>15.955163415063</v>
-      </c>
-      <c r="S25">
-        <v>0.001162695226038473</v>
-      </c>
-      <c r="T25">
-        <v>0.001162695226038473</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>2.235963</v>
-      </c>
-      <c r="H26">
-        <v>6.707889</v>
-      </c>
-      <c r="I26">
-        <v>0.1009867933946438</v>
-      </c>
-      <c r="J26">
-        <v>0.1009867933946438</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.04108233333333334</v>
-      </c>
-      <c r="N26">
-        <v>0.123247</v>
-      </c>
-      <c r="O26">
-        <v>0.0005965711874118121</v>
-      </c>
-      <c r="P26">
-        <v>0.0005965711874118121</v>
-      </c>
-      <c r="Q26">
-        <v>0.091858577287</v>
-      </c>
-      <c r="R26">
-        <v>0.826727195583</v>
-      </c>
-      <c r="S26">
-        <v>6.024581124835401E-05</v>
-      </c>
-      <c r="T26">
-        <v>6.024581124835401E-05</v>
+        <v>0.001255736002161627</v>
       </c>
     </row>
   </sheetData>
